--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -58,7 +58,7 @@
     <t>界面编号</t>
   </si>
   <si>
-    <t>策划备注</t>
+    <t>备注</t>
   </si>
   <si>
     <t>资源名称</t>
@@ -73,25 +73,28 @@
     <t>是否暂停被其覆盖的界面</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>LoginForm</t>
+    <t>帮助界面</t>
+  </si>
+  <si>
+    <t>UIHelp</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>大厅面</t>
+  </si>
+  <si>
+    <t>UILobby</t>
+  </si>
+  <si>
+    <t>登录界面</t>
+  </si>
+  <si>
+    <t>UILogin</t>
   </si>
   <si>
     <t>Default</t>
-  </si>
-  <si>
-    <t>主界面</t>
-  </si>
-  <si>
-    <t>MainForm</t>
-  </si>
-  <si>
-    <t>房间界面</t>
-  </si>
-  <si>
-    <t>MatchRoomForm</t>
   </si>
 </sst>
 </file>
@@ -1078,13 +1081,13 @@
   <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="29.7583333333333" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="23.125" customWidth="1"/>
@@ -1220,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>0</v>

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>测试界面</t>
+  </si>
+  <si>
+    <t>UITest</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1090,7 @@
   <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1235,12 +1244,24 @@
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1">
+        <v>999</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>Default</t>
-  </si>
-  <si>
-    <t>测试界面</t>
-  </si>
-  <si>
-    <t>UITest</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1081,7 @@
   <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1244,24 +1235,12 @@
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" ht="16.5" spans="1:8">

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>CSName</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>界面编号</t>
   </si>
   <si>
+    <t>代码名（程序填）</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -73,25 +79,25 @@
     <t>是否暂停被其覆盖的界面</t>
   </si>
   <si>
+    <t>UIHelp</t>
+  </si>
+  <si>
     <t>帮助界面</t>
   </si>
   <si>
-    <t>UIHelp</t>
-  </si>
-  <si>
     <t>Pop</t>
   </si>
   <si>
+    <t>UILobby</t>
+  </si>
+  <si>
     <t>大厅面</t>
   </si>
   <si>
-    <t>UILobby</t>
+    <t>UILogin</t>
   </si>
   <si>
     <t>登录界面</t>
-  </si>
-  <si>
-    <t>UILogin</t>
   </si>
   <si>
     <t>Default</t>
@@ -118,13 +124,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
@@ -720,13 +726,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,24 +1100,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="29.7583333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" ht="16.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,650 +1142,627 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:8">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:8">
-      <c r="A4" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:9">
       <c r="B4" s="1">
         <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="1"/>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:9">
       <c r="B5" s="1">
         <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:8">
-      <c r="A6" s="1"/>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:9">
       <c r="B6" s="1">
         <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="3:5">
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" ht="16.5" spans="9:9">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" ht="16.5" spans="9:9">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" ht="16.5" spans="9:9">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" ht="16.5" spans="9:9">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" ht="16.5" spans="9:9">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="3"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="3"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="5:5">
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="5:5">
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="5:5">
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="5:5">
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="5:5">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="5:7">
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="4:7">
-      <c r="D67" s="2"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="4:7">
-      <c r="D68" s="2"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="4:7">
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="4:7">
-      <c r="D70" s="2"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="4:7">
-      <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="4:7">
-      <c r="D72" s="2"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="4:7">
-      <c r="D73" s="2"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="4:7">
-      <c r="D74" s="2"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="4:7">
-      <c r="D75" s="2"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="4:7">
-      <c r="D76" s="2"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="4:7">
-      <c r="D77" s="2"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="4:7">
-      <c r="D78" s="2"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="4:7">
-      <c r="D79" s="2"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="6"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="5:8">
+      <c r="E67" s="2"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="5:8">
+      <c r="E68" s="2"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="5:8">
+      <c r="E69" s="2"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="5:8">
+      <c r="E70" s="2"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="5:8">
+      <c r="E71" s="2"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="5:8">
+      <c r="E72" s="2"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="5:8">
+      <c r="E73" s="2"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="5:8">
+      <c r="E74" s="2"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="5:8">
+      <c r="E75" s="2"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="5:8">
+      <c r="E76" s="2"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="5:8">
+      <c r="E77" s="2"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="5:8">
+      <c r="E78" s="2"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="5:8">
+      <c r="E79" s="2"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="8"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="4"/>
-      <c r="D81" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="8"/>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="4"/>
-      <c r="D82" s="2"/>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="8"/>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="4"/>
-      <c r="D83" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="8"/>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="4"/>
-      <c r="D84" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="8"/>
       <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="4"/>
-      <c r="D85" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="8"/>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="4"/>
-      <c r="D86" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="8"/>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="4"/>
-      <c r="D87" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="8"/>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="4"/>
-      <c r="D88" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="8"/>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="4"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="4"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="4"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="4"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="4"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="4"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="4"/>
-      <c r="D95" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="8"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="8"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="8"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="8"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="8"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="8"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="8"/>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="4"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="4"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="4"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="4"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="4"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="4"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="4"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="4"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="4"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="4"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="4"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="4"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="4"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="4"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="4"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="4"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="4"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="4"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="4"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="4"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="4"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="4"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="4"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="4"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="4"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="4"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" s="4"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="4"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="4"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="4"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="4"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="4"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="4"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="4"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="4"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="4"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="4"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" s="4"/>
-      <c r="E133" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="8"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="8"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="8"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="8"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="8"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="8"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="8"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="8"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="8"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="8"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="8"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="8"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="8"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="8"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="8"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="8"/>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="8"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="8"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="8"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="8"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="8"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="8"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="8"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="8"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="8"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="8"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="8"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="8"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="8"/>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="8"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="8"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="8"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="8"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="8"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="8"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="8"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="8"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="8"/>
+      <c r="F133" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -85,6 +85,9 @@
     <t>帮助界面</t>
   </si>
   <si>
+    <t>Demo/UIHelp</t>
+  </si>
+  <si>
     <t>Pop</t>
   </si>
   <si>
@@ -94,13 +97,40 @@
     <t>大厅面</t>
   </si>
   <si>
+    <t>Demo/UILobby</t>
+  </si>
+  <si>
     <t>UILogin</t>
   </si>
   <si>
     <t>登录界面</t>
   </si>
   <si>
+    <t>Demo/UILogin</t>
+  </si>
+  <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>UILSLogin</t>
+  </si>
+  <si>
+    <t>LockStep/UILSLogin</t>
+  </si>
+  <si>
+    <t>UILSLobby</t>
+  </si>
+  <si>
+    <t>LockStep/UILSLobby</t>
+  </si>
+  <si>
+    <t>UILSRoom</t>
+  </si>
+  <si>
+    <t>房间界面</t>
+  </si>
+  <si>
+    <t>LockStep/UILSRoom</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1133,7 @@
   <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1212,10 +1242,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>0</v>
@@ -1230,16 +1260,16 @@
         <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
@@ -1254,16 +1284,16 @@
         <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>0</v>
@@ -1273,13 +1303,76 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" ht="16.5" spans="9:9">
+    <row r="7" ht="16.5" spans="2:9">
+      <c r="B7" s="1">
+        <v>201</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" ht="16.5" spans="9:9">
+    <row r="8" ht="16.5" spans="2:9">
+      <c r="B8" s="1">
+        <v>202</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" ht="16.5" spans="9:9">
+    <row r="9" ht="16.5" spans="2:9">
+      <c r="B9" s="1">
+        <v>203</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" ht="16.5" spans="9:9">

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,42 @@
   </si>
   <si>
     <t>LockStep/UILSRoom</t>
+  </si>
+  <si>
+    <t>DialogForm</t>
+  </si>
+  <si>
+    <t>弹出框</t>
+  </si>
+  <si>
+    <t>Hot/DialogForm</t>
+  </si>
+  <si>
+    <t>MenuForm</t>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>Hot/MenuForm</t>
+  </si>
+  <si>
+    <t>SettingForm</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Hot/SettingForm</t>
+  </si>
+  <si>
+    <t>AboutForm</t>
+  </si>
+  <si>
+    <t>关于</t>
+  </si>
+  <si>
+    <t>Hot/AboutForm</t>
   </si>
 </sst>
 </file>
@@ -756,31 +792,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,7 +1163,7 @@
   <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1175,7 +1205,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" ht="16.5" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1202,7 +1232,7 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -1229,11 +1259,11 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" ht="16.5" spans="2:9">
       <c r="B4" s="1">
-        <v>101</v>
+        <v>801</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -1253,11 +1283,11 @@
       <c r="H4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" ht="16.5" spans="2:9">
       <c r="B5" s="1">
-        <v>102</v>
+        <v>802</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
@@ -1277,11 +1307,11 @@
       <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" ht="16.5" spans="2:9">
       <c r="B6" s="1">
-        <v>103</v>
+        <v>803</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1301,11 +1331,11 @@
       <c r="H6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="2:9">
       <c r="B7" s="1">
-        <v>201</v>
+        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1325,11 +1355,11 @@
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" ht="16.5" spans="2:9">
       <c r="B8" s="1">
-        <v>202</v>
+        <v>902</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
@@ -1349,11 +1379,11 @@
       <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" ht="16.5" spans="2:9">
       <c r="B9" s="1">
-        <v>203</v>
+        <v>903</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -1373,35 +1403,108 @@
       <c r="H9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" ht="16.5" spans="9:9">
-      <c r="I10" s="7"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:9">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" ht="16.5" spans="9:9">
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="2"/>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:9">
+      <c r="B12" s="3">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="3">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="3"/>
+    <row r="19" spans="6:6">
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="6:6">
@@ -1419,8 +1522,7 @@
     <row r="24" spans="6:6">
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="3"/>
+    <row r="25" spans="6:6">
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6">
@@ -1433,14 +1535,13 @@
     <row r="27" spans="3:6">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="4"/>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="6"/>
+    <row r="32" spans="6:6">
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="6:6">
@@ -1630,231 +1731,231 @@
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="8"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="8"/>
+      <c r="B81" s="6"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="8"/>
+      <c r="B82" s="6"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="8"/>
+      <c r="B83" s="6"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="8"/>
+      <c r="B84" s="6"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="8"/>
+      <c r="B85" s="6"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="8"/>
+      <c r="B86" s="6"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="8"/>
+      <c r="B87" s="6"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="8"/>
+      <c r="B88" s="6"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="8"/>
+      <c r="B89" s="6"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="8"/>
+      <c r="B90" s="6"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="8"/>
+      <c r="B91" s="6"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="8"/>
+      <c r="B92" s="6"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="8"/>
+      <c r="B93" s="6"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="8"/>
+      <c r="B94" s="6"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="8"/>
+      <c r="B95" s="6"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="8"/>
+      <c r="B96" s="6"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="8"/>
+      <c r="B97" s="6"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="8"/>
+      <c r="B98" s="6"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="8"/>
+      <c r="B99" s="6"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="8"/>
+      <c r="B100" s="6"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="8"/>
+      <c r="B101" s="6"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="8"/>
+      <c r="B102" s="6"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="8"/>
+      <c r="B103" s="6"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="8"/>
+      <c r="B104" s="6"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="8"/>
+      <c r="B105" s="6"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="8"/>
+      <c r="B106" s="6"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="8"/>
+      <c r="B107" s="6"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="8"/>
+      <c r="B108" s="6"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="8"/>
+      <c r="B109" s="6"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="8"/>
+      <c r="B110" s="6"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="8"/>
+      <c r="B111" s="6"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="8"/>
+      <c r="B112" s="6"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="8"/>
+      <c r="B113" s="6"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="8"/>
+      <c r="B114" s="6"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="8"/>
+      <c r="B115" s="6"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="8"/>
+      <c r="B116" s="6"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="8"/>
+      <c r="B117" s="6"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="8"/>
+      <c r="B118" s="6"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="8"/>
+      <c r="B119" s="6"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="8"/>
+      <c r="B120" s="6"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="8"/>
+      <c r="B121" s="6"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="8"/>
+      <c r="B122" s="6"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="8"/>
+      <c r="B123" s="6"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="8"/>
+      <c r="B124" s="6"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="8"/>
+      <c r="B125" s="6"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="8"/>
+      <c r="B126" s="6"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="8"/>
+      <c r="B127" s="6"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="8"/>
+      <c r="B128" s="6"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="8"/>
+      <c r="B129" s="6"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="2:6">
-      <c r="B130" s="8"/>
+      <c r="B130" s="6"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="2:6">
-      <c r="B131" s="8"/>
+      <c r="B131" s="6"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="2:6">
-      <c r="B132" s="8"/>
+      <c r="B132" s="6"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="2:6">
-      <c r="B133" s="8"/>
+      <c r="B133" s="6"/>
       <c r="F133" s="2"/>
     </row>
   </sheetData>

--- a/Design/Excel/Game/Datas/UI.xlsx
+++ b/Design/Excel/Game/Datas/UI.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UI界面" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -172,14 +185,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,67 +201,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,6 +258,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -338,7 +318,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,49 +354,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,121 +492,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,21 +545,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,6 +577,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,152 +648,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,64 +804,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1160,13 +1152,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -1176,11 +1168,10 @@
     <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,9 +1196,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1232,9 +1222,8 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5"/>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1259,9 +1248,8 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5"/>
     </row>
-    <row r="4" ht="16.5" spans="2:9">
+    <row r="4" spans="2:8">
       <c r="B4" s="1">
         <v>801</v>
       </c>
@@ -1283,9 +1271,8 @@
       <c r="H4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="5"/>
     </row>
-    <row r="5" ht="16.5" spans="2:9">
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>802</v>
       </c>
@@ -1307,9 +1294,8 @@
       <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="5"/>
     </row>
-    <row r="6" ht="16.5" spans="2:9">
+    <row r="6" spans="2:8">
       <c r="B6" s="1">
         <v>803</v>
       </c>
@@ -1331,9 +1317,8 @@
       <c r="H6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="5"/>
     </row>
-    <row r="7" ht="16.5" spans="2:9">
+    <row r="7" spans="2:8">
       <c r="B7" s="1">
         <v>901</v>
       </c>
@@ -1355,9 +1340,8 @@
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
     </row>
-    <row r="8" ht="16.5" spans="2:9">
+    <row r="8" spans="2:8">
       <c r="B8" s="1">
         <v>902</v>
       </c>
@@ -1379,9 +1363,8 @@
       <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
     </row>
-    <row r="9" ht="16.5" spans="2:9">
+    <row r="9" spans="2:8">
       <c r="B9" s="1">
         <v>903</v>
       </c>
@@ -1403,9 +1386,8 @@
       <c r="H9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="2:9">
+    <row r="10" spans="2:8">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1427,10 +1409,8 @@
       <c r="H10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="5"/>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
-      <c r="A11" s="2"/>
+    <row r="11" spans="2:8">
       <c r="B11" s="3">
         <v>100</v>
       </c>
@@ -1452,9 +1432,8 @@
       <c r="H11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="5"/>
     </row>
-    <row r="12" ht="16.5" spans="2:9">
+    <row r="12" spans="2:8">
       <c r="B12" s="3">
         <v>101</v>
       </c>
@@ -1476,7 +1455,6 @@
       <c r="H12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="3">
@@ -1500,463 +1478,6 @@
       <c r="H13" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="6:6">
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="6:6">
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="6:6">
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="6:6">
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="6:6">
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="6:6">
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="6:6">
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="6:6">
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="6:6">
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="6:6">
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="6:6">
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="6:6">
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="6:8">
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="6:8">
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="6:8">
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="5:8">
-      <c r="E67" s="2"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="5:8">
-      <c r="E68" s="2"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="5:8">
-      <c r="E69" s="2"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="5:8">
-      <c r="E70" s="2"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="5:8">
-      <c r="E71" s="2"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="5:8">
-      <c r="E72" s="2"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="5:8">
-      <c r="E73" s="2"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="5:8">
-      <c r="E74" s="2"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="5:8">
-      <c r="E75" s="2"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="5:8">
-      <c r="E76" s="2"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="5:8">
-      <c r="E77" s="2"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="5:8">
-      <c r="E78" s="2"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="5:8">
-      <c r="E79" s="2"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="6"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="6"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="6"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="6"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="6"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="6"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="6"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="6"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="6"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="6"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="6"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="6"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="6"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="6"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="6"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="6"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="6"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="6"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="6"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="6"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="6"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="6"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="6"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="6"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="6"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="6"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="6"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="6"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="6"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="6"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" s="6"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="6"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="6"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="6"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="6"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" s="6"/>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" s="6"/>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" s="6"/>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" s="6"/>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" s="6"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="6"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" s="6"/>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="6"/>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" s="6"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="6"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="6"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" s="6"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" s="6"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="6"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" s="6"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="6"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" s="6"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" s="6"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="B133" s="6"/>
-      <c r="F133" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
